--- a/biology/Botanique/Potaliaceae/Potaliaceae.xlsx
+++ b/biology/Botanique/Potaliaceae/Potaliaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Potaliacées est une famille de plantes dicotylédones qui compte 70 espèces réparties en 3 genres.
 Ce sont des arbres des arbustes ou des lianes, certains épiphytes, certains épineux, à feuilles parcheminées, des régions tropicales.
 La classification phylogénétique l'incorpore aux Gentianacées.
-La classification classique de Cronquist (1981)[2] ne la reconnait pas non plus.
+La classification classique de Cronquist (1981) ne la reconnait pas non plus.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon DELTA Angio           (24 juil. 2010)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (24 juil. 2010) :
 genre Anthocleista
 genre Fagraea
 genre Potalia</t>
